--- a/Matlab Files/Simulink Test Cases.xlsx
+++ b/Matlab Files/Simulink Test Cases.xlsx
@@ -142,11 +142,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,6 +162,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,7 +434,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,33 +451,33 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Matlab Files/Simulink Test Cases.xlsx
+++ b/Matlab Files/Simulink Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07b0391834ff6c23/Documents/MATLAB/Software Defined Networking (SDN) ^0 Radio (SDR)/SDR_KSU/Matlab Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_F25DC773A252ABDACC104845019F66A25ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAA4CCF0-7BAB-4AFD-9CBC-59EC74EC6614}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC104845019F66A25ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4113D54-4BA9-4419-9CD9-5D72280CA9F3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>CAN Bus Message</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Internal Model Expectations</t>
   </si>
   <si>
-    <t>Encrypted Code</t>
-  </si>
-  <si>
-    <t>Received Encrypted Signal</t>
-  </si>
-  <si>
     <t>Received Universal Common Code</t>
   </si>
   <si>
@@ -63,6 +57,9 @@
   </si>
   <si>
     <t>Model Output</t>
+  </si>
+  <si>
+    <t>Received Signal</t>
   </si>
 </sst>
 </file>
@@ -431,23 +428,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -456,34 +452,30 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
